--- a/The Betfair Exchange.xlsx
+++ b/The Betfair Exchange.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\Useful Programs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\Useful Programs\The Betfair Exchange\The-Betfair-Exchange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE647586-52EB-4A28-BE9C-43B3BAA615D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1385DFB-C561-461D-BCB3-7E8A8CE07AC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F773D6B8-DE5C-4D54-B5FA-B44E800E09B5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Strategy:</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>1.97, 3.55, 4.7</t>
+  </si>
+  <si>
+    <t>Invested: 5</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E503E5B5-6554-499C-897A-7D01797D0997}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,6 +431,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
